--- a/data/rockets_pivoted.xlsx
+++ b/data/rockets_pivoted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\OneDrive\Desktop\Python\Rocket_Paylod_Estimator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE\Rocket_Paylod_Estimator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D58CD5-6F60-4934-A295-4279065FCD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87956EFC-570D-429D-96FD-5942FA1D0D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{65BE5BDE-68E9-4515-86BB-3F70BF3FD0F4}"/>
   </bookViews>
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E881899-FA7F-4111-B7AE-D9D92D74A452}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B34"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
